--- a/data/trans_dic/P15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07635236710981885</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05619711051400387</v>
+        <v>0.05619711051400385</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08305742358286379</v>
+        <v>0.0821396481232579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09852492315073222</v>
+        <v>0.1019848809355864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07956384442168167</v>
+        <v>0.07797897650119712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02271813000638607</v>
+        <v>0.02245293613331008</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03219827724745179</v>
+        <v>0.03107452571644938</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05296572308766628</v>
+        <v>0.05177223287825378</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02877153566699845</v>
+        <v>0.02779982862243878</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03273200611466369</v>
+        <v>0.03286687108823164</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06329757820550441</v>
+        <v>0.06329910778953154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08476670924864878</v>
+        <v>0.08463855697313177</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05807101642160852</v>
+        <v>0.05960934227291505</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03434945107607078</v>
+        <v>0.03323861305585897</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1401207297774157</v>
+        <v>0.1382181481946026</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1627094243526523</v>
+        <v>0.1639039218741638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1421071664737195</v>
+        <v>0.1376656191639073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09769490440131826</v>
+        <v>0.1000640187586185</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06995412639216625</v>
+        <v>0.07171893122835597</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1007748481894856</v>
+        <v>0.1012681660350181</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06847800561979173</v>
+        <v>0.06869966186592281</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1149091434636359</v>
+        <v>0.1092058899020268</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09675801157782958</v>
+        <v>0.09603221276567912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1251416054134269</v>
+        <v>0.1255285796059533</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09556461665497094</v>
+        <v>0.09799265215460948</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08777807020324814</v>
+        <v>0.08783531299455213</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.06372025084331245</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04962583214207972</v>
+        <v>0.04962583214207971</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06994646454534517</v>
+        <v>0.0689835813729883</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0959398963340303</v>
+        <v>0.09660535865757378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06521074651138919</v>
+        <v>0.06466476356391843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04367275636656019</v>
+        <v>0.0411864269375823</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0394053721966074</v>
+        <v>0.04030786786612243</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04647908659484921</v>
+        <v>0.04624559002567796</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02543126310180987</v>
+        <v>0.02647953190504969</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01846702664497581</v>
+        <v>0.01693140023866824</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06008052339294658</v>
+        <v>0.06018444940768718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07892114458694303</v>
+        <v>0.07742049751097353</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04960653765466034</v>
+        <v>0.05047762011864575</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03338942631407604</v>
+        <v>0.03444580597093187</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1137622734664716</v>
+        <v>0.1102365853858644</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1461287381680229</v>
+        <v>0.1462698805310378</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1082458737974623</v>
+        <v>0.1110563841983871</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1098586309750236</v>
+        <v>0.1107575417995972</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07853154703517286</v>
+        <v>0.07832656096655011</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08732406048320011</v>
+        <v>0.08733238275336569</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05770330679915447</v>
+        <v>0.05912644370656611</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05181063429105098</v>
+        <v>0.04853679409467719</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08796733282210338</v>
+        <v>0.08997758926397133</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1138641800639624</v>
+        <v>0.1115506195127138</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07962150843229361</v>
+        <v>0.07831085790225835</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07021000208376073</v>
+        <v>0.07113520993587712</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0520534742875787</v>
+        <v>0.05281673690248083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06299119518667802</v>
+        <v>0.06177468208228794</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03698617683304262</v>
+        <v>0.0369418648806722</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04457693280117835</v>
+        <v>0.04281091888741028</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01824250739087306</v>
+        <v>0.01797941313004498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02928126339167895</v>
+        <v>0.0285601989463489</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02494999485652646</v>
+        <v>0.02424156293412888</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03651210941819404</v>
+        <v>0.03568424124694045</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03764010974367143</v>
+        <v>0.03822840825746809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04936413912945581</v>
+        <v>0.04942537031089045</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03631004985358667</v>
+        <v>0.03544099559931586</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04336599626790534</v>
+        <v>0.04390689385472582</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09407378599580936</v>
+        <v>0.0971548941569253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1086339622057571</v>
+        <v>0.1106663609808484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07377984548409047</v>
+        <v>0.073369718083205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0858810163171892</v>
+        <v>0.08530329369392918</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04382122324858059</v>
+        <v>0.04540251505169692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0589353711818145</v>
+        <v>0.05773096889599812</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05596323139871218</v>
+        <v>0.05624996616276692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0651902054579013</v>
+        <v>0.06459507190111988</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06303385825709988</v>
+        <v>0.0622411069659775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07728894842827463</v>
+        <v>0.07654146595726682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0597049763752124</v>
+        <v>0.05849065159314489</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06969847739562164</v>
+        <v>0.06934878883747249</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04116783966694079</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06160110406331843</v>
+        <v>0.06160110406331844</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05838489163667269</v>
+        <v>0.05855655680728005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04378108475307303</v>
+        <v>0.04471563666356774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03048150988592553</v>
+        <v>0.03023650265883812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06110545744106532</v>
+        <v>0.05771662028820451</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02345593206472444</v>
+        <v>0.02438518788141176</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0406961365614987</v>
+        <v>0.03990418007952478</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02344896508037105</v>
+        <v>0.02454424634072603</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03372928413552627</v>
+        <v>0.03389126007937106</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04441004982077382</v>
+        <v>0.04606814621896196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04767164594937644</v>
+        <v>0.04736621876044524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03140872365483741</v>
+        <v>0.03068307947403979</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05003903550258428</v>
+        <v>0.04878044751872684</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1064047322085976</v>
+        <v>0.1077418075917346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0821988881600724</v>
+        <v>0.08393435850379888</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06412129908832599</v>
+        <v>0.06271983658008239</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1045264364038551</v>
+        <v>0.1042984313956307</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05766313221436881</v>
+        <v>0.05850849349527414</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0821643958070878</v>
+        <v>0.08128452892413288</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0537858718158478</v>
+        <v>0.05432525972682218</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0585654621662912</v>
+        <v>0.05845537997654752</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07419961823520388</v>
+        <v>0.07736516676857344</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07448217762494308</v>
+        <v>0.07603007261558845</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05361745856120019</v>
+        <v>0.05429113646071168</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07317690161382052</v>
+        <v>0.07353762356761258</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03189681804441603</v>
+        <v>0.02878433766660886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0152403364003453</v>
+        <v>0.01523376335376464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01582111496874859</v>
+        <v>0.0155814215804489</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03629604532646798</v>
+        <v>0.0358618530045113</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.026699597079619</v>
+        <v>0.02696843266250189</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06746186429198735</v>
+        <v>0.06715198156348798</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04169807646426646</v>
+        <v>0.04173669109205833</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04905645111497464</v>
+        <v>0.04738622459823783</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03314105600881153</v>
+        <v>0.03455191229958922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04727095493703266</v>
+        <v>0.0467382294546484</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03128882702830335</v>
+        <v>0.03378065759091538</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04700061685711798</v>
+        <v>0.04668634494884816</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07188545484838102</v>
+        <v>0.07311108115676641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05064398674027319</v>
+        <v>0.04976784810915389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04749165702507643</v>
+        <v>0.04766259728715581</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07025183006080511</v>
+        <v>0.07213240045304346</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06598586302186867</v>
+        <v>0.06608690992920074</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1256254860790952</v>
+        <v>0.1267012488603942</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09282739401099077</v>
+        <v>0.08822887818005921</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07996849637104257</v>
+        <v>0.0798896359772122</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06097852020052307</v>
+        <v>0.06419204984094307</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08118538461649168</v>
+        <v>0.08071457532651961</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06047223003266409</v>
+        <v>0.06304064684965967</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07055058952285626</v>
+        <v>0.07045290400873293</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.07756536848710521</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08244912006552883</v>
+        <v>0.08244912006552882</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05728802811503113</v>
@@ -1377,7 +1377,7 @@
         <v>0.05650006220705964</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.06421963740100083</v>
+        <v>0.06421963740100084</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02040523158076327</v>
+        <v>0.01896077408088239</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03299978277028803</v>
+        <v>0.03443706460273192</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01676714820016341</v>
+        <v>0.01654196053848339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02921159790573363</v>
+        <v>0.02979834560984257</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0512301541035487</v>
+        <v>0.0520692708307147</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04647304681236455</v>
+        <v>0.0493009429344641</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05373718489975802</v>
+        <v>0.05326361150200217</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06562106226723786</v>
+        <v>0.06337269164071813</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04142343152843666</v>
+        <v>0.04074069242871657</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04694094974531354</v>
+        <v>0.04732239082738757</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04274231391886916</v>
+        <v>0.04049496828911111</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0521282935581807</v>
+        <v>0.05156426790657344</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06059791701697581</v>
+        <v>0.06090600410681862</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08974169257078669</v>
+        <v>0.09003400252233745</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06037891515204014</v>
+        <v>0.05437115817641691</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06304221379431965</v>
+        <v>0.06284267742536701</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1049340595010771</v>
+        <v>0.1072345498697558</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1014068857818603</v>
+        <v>0.1030556416408993</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1095602210730696</v>
+        <v>0.1127370301977309</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1040657664134894</v>
+        <v>0.1009072788078678</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07691251974795153</v>
+        <v>0.07659994895931743</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08480105884037221</v>
+        <v>0.08502464766060616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07587203671071019</v>
+        <v>0.07532711304796801</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07834500264343752</v>
+        <v>0.07832200362624157</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.05908730760978728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07418667200668654</v>
+        <v>0.07418667200668652</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1023305561735093</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02139821005515026</v>
+        <v>0.01775861125473937</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05743329812499524</v>
+        <v>0.05761815387243707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03544537249248306</v>
+        <v>0.03775926822976618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05106486915220521</v>
+        <v>0.05357969530185793</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0685425215100491</v>
+        <v>0.0721436360267099</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.104836651310711</v>
+        <v>0.1068515416235014</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07291998850559313</v>
+        <v>0.07036296279607947</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1002389388924532</v>
+        <v>0.1009561248299393</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05767226553195755</v>
+        <v>0.05701218952530047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09479939779434066</v>
+        <v>0.09689309140466584</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06272541219800129</v>
+        <v>0.0635747086537328</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08639474029591895</v>
+        <v>0.08866977216790377</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08129138243861371</v>
+        <v>0.07790867730816492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1268381650973248</v>
+        <v>0.1324849828849813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09034336513665507</v>
+        <v>0.09100568301274817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09938564386831192</v>
+        <v>0.1035155997447582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1410422751731177</v>
+        <v>0.1422503747404839</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1794935210864454</v>
+        <v>0.1796692225557765</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1391897233711989</v>
+        <v>0.1461347390208899</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1453224850186236</v>
+        <v>0.1454783003607488</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1087167550701554</v>
+        <v>0.1058264054147036</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1482061740591508</v>
+        <v>0.1484501550532689</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.112739253181034</v>
+        <v>0.1114538027869544</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1206990232497063</v>
+        <v>0.1199333512246917</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.05881354040970593</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.06256369914428099</v>
+        <v>0.062563699144281</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.05190305141419276</v>
@@ -1637,7 +1637,7 @@
         <v>0.05401359446578705</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.06215911422152013</v>
+        <v>0.06215911422152014</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.0628700989478881</v>
@@ -1649,7 +1649,7 @@
         <v>0.05636162025411929</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.0623557707449064</v>
+        <v>0.06235577074490638</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07489102728451762</v>
+        <v>0.07447272804580804</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05109440142445725</v>
+        <v>0.05080103231740923</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05411317423927597</v>
+        <v>0.0548601524463539</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06368237157492769</v>
+        <v>0.06460890310234906</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04607045518126178</v>
+        <v>0.04647924367404022</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05561134505675745</v>
+        <v>0.05533809892483401</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07184875164190303</v>
+        <v>0.07183064796786121</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05101192179540998</v>
+        <v>0.05108095029341373</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05692546160552825</v>
+        <v>0.05659137421023271</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09372113854246493</v>
+        <v>0.09366076894361532</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0673473647381875</v>
+        <v>0.06686066821998142</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07181674781885777</v>
+        <v>0.07346635289311175</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08144079426792912</v>
+        <v>0.0825135538443319</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06226673053886253</v>
+        <v>0.06201478604536539</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0694679133265199</v>
+        <v>0.06950992358706531</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08446114883974158</v>
+        <v>0.08450028608582184</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06207361678220056</v>
+        <v>0.06243388843123297</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06810318948950893</v>
+        <v>0.06825525963253751</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41036</v>
+        <v>40582</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44745</v>
+        <v>46316</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>33374</v>
+        <v>32709</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9264</v>
+        <v>9156</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15052</v>
+        <v>14527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22787</v>
+        <v>22274</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11386</v>
+        <v>11002</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11866</v>
+        <v>11915</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60864</v>
+        <v>60865</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>74966</v>
+        <v>74852</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>47341</v>
+        <v>48595</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26460</v>
+        <v>25604</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69229</v>
+        <v>68289</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73894</v>
+        <v>74436</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59609</v>
+        <v>57746</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39839</v>
+        <v>40805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32703</v>
+        <v>33528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43356</v>
+        <v>43569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27101</v>
+        <v>27188</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41656</v>
+        <v>39588</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>93038</v>
+        <v>92340</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>110672</v>
+        <v>111014</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>77906</v>
+        <v>79885</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67616</v>
+        <v>67660</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51445</v>
+        <v>50737</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65919</v>
+        <v>66376</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38507</v>
+        <v>38184</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20827</v>
+        <v>19641</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24648</v>
+        <v>25212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28364</v>
+        <v>28222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14332</v>
+        <v>14922</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9254</v>
+        <v>8484</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>81769</v>
+        <v>81910</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>102388</v>
+        <v>100441</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>57248</v>
+        <v>58253</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>32654</v>
+        <v>33687</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>83671</v>
+        <v>81078</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>100403</v>
+        <v>100500</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63919</v>
+        <v>65578</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>52390</v>
+        <v>52819</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49121</v>
+        <v>48993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>53290</v>
+        <v>53295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32518</v>
+        <v>33320</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25961</v>
+        <v>24321</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>119722</v>
+        <v>122458</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>147721</v>
+        <v>144719</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>91886</v>
+        <v>90374</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68663</v>
+        <v>69568</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33245</v>
+        <v>33732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42951</v>
+        <v>42122</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24747</v>
+        <v>24718</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27675</v>
+        <v>26579</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12583</v>
+        <v>12401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20815</v>
+        <v>20302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16502</v>
+        <v>16033</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22716</v>
+        <v>22201</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>50002</v>
+        <v>50783</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>68750</v>
+        <v>68835</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48310</v>
+        <v>47154</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>53903</v>
+        <v>54575</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60082</v>
+        <v>62050</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74073</v>
+        <v>75459</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49366</v>
+        <v>49091</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>53318</v>
+        <v>52959</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30225</v>
+        <v>31316</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41894</v>
+        <v>41038</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37013</v>
+        <v>37203</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40557</v>
+        <v>40187</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>83735</v>
+        <v>82682</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>107641</v>
+        <v>106600</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>79436</v>
+        <v>77821</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>86634</v>
+        <v>86199</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30310</v>
+        <v>30399</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26909</v>
+        <v>27483</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19693</v>
+        <v>19534</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42812</v>
+        <v>40437</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12095</v>
+        <v>12574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25077</v>
+        <v>24589</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15220</v>
+        <v>15931</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24855</v>
+        <v>24974</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45955</v>
+        <v>47671</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>58675</v>
+        <v>58299</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40678</v>
+        <v>39738</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>71931</v>
+        <v>70122</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55240</v>
+        <v>55934</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50521</v>
+        <v>51587</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41425</v>
+        <v>40520</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73233</v>
+        <v>73073</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29734</v>
+        <v>30169</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50630</v>
+        <v>50087</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34911</v>
+        <v>35261</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43156</v>
+        <v>43075</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76781</v>
+        <v>80057</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>91674</v>
+        <v>93579</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>69441</v>
+        <v>70314</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>105192</v>
+        <v>105711</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12335</v>
+        <v>11131</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6545</v>
+        <v>6542</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7561</v>
+        <v>7447</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22117</v>
+        <v>21852</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10786</v>
+        <v>10895</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30209</v>
+        <v>30071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20718</v>
+        <v>20737</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29868</v>
+        <v>28851</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26205</v>
+        <v>27320</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>41467</v>
+        <v>41000</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30499</v>
+        <v>32928</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>57256</v>
+        <v>56873</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27799</v>
+        <v>28273</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21748</v>
+        <v>21372</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>22697</v>
+        <v>22779</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42808</v>
+        <v>43954</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26657</v>
+        <v>26698</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>56255</v>
+        <v>56737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>46121</v>
+        <v>43836</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48689</v>
+        <v>48641</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>48215</v>
+        <v>50756</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>71218</v>
+        <v>70805</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>58946</v>
+        <v>61450</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>85945</v>
+        <v>85826</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5970</v>
+        <v>5548</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10223</v>
+        <v>10668</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5606</v>
+        <v>5530</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11891</v>
+        <v>12130</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17569</v>
+        <v>17856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16451</v>
+        <v>17452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>20300</v>
+        <v>20121</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>28819</v>
+        <v>27831</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>26325</v>
+        <v>25891</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>31159</v>
+        <v>31412</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>30436</v>
+        <v>28836</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>44113</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17730</v>
+        <v>17820</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27801</v>
+        <v>27891</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>20186</v>
+        <v>18178</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25663</v>
+        <v>25582</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>35985</v>
+        <v>36774</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>35898</v>
+        <v>36481</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41388</v>
+        <v>42588</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>45702</v>
+        <v>44315</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>48879</v>
+        <v>48681</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>56289</v>
+        <v>56438</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>54028</v>
+        <v>53640</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>66299</v>
+        <v>66280</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4491</v>
+        <v>3727</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14350</v>
+        <v>14396</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9109</v>
+        <v>9704</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>15840</v>
+        <v>16620</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22887</v>
+        <v>24089</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>40779</v>
+        <v>41563</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>29180</v>
+        <v>28157</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>46572</v>
+        <v>46905</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>31362</v>
+        <v>31003</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60561</v>
+        <v>61898</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>41221</v>
+        <v>41779</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>66939</v>
+        <v>68702</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17062</v>
+        <v>16352</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31691</v>
+        <v>33102</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23218</v>
+        <v>23388</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>30829</v>
+        <v>32110</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>47095</v>
+        <v>47499</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>69819</v>
+        <v>69888</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>55699</v>
+        <v>58479</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>67518</v>
+        <v>67591</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>59119</v>
+        <v>57547</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>94679</v>
+        <v>94834</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>74089</v>
+        <v>73244</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>93518</v>
+        <v>92925</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>256635</v>
+        <v>255202</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>173432</v>
+        <v>172436</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>191169</v>
+        <v>193808</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>226602</v>
+        <v>229898</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>163299</v>
+        <v>164748</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>207722</v>
+        <v>206702</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>501870</v>
+        <v>501743</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>353966</v>
+        <v>354445</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>413735</v>
+        <v>411307</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>321162</v>
+        <v>320955</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>228601</v>
+        <v>226949</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>253711</v>
+        <v>259539</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>289792</v>
+        <v>293609</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>220707</v>
+        <v>219814</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>259480</v>
+        <v>259637</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>589969</v>
+        <v>590242</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>430722</v>
+        <v>433222</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>494975</v>
+        <v>496080</v>
       </c>
     </row>
     <row r="36">
